--- a/Mifos Automation Excels/Client/3000-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3000-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-CASH-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="740"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
     <sheet name="Acc_Disbursement" sheetId="6" r:id="rId5"/>
     <sheet name="Acc_RepaymentDisbursement" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -740,7 +741,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1001,7 +1004,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,8 +1126,7 @@
         <v>9214.2000000000007</v>
       </c>
       <c r="H3" s="4">
-        <f>G2*(12/100/365)*B3</f>
-        <v>101.91780821917808</v>
+        <v>101.92</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1167,8 +1169,7 @@
         <v>8418.5300000000007</v>
       </c>
       <c r="H4" s="4">
-        <f>G2*(12/100/365)*B4</f>
-        <v>92.054794520547958</v>
+        <v>92.05</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1211,8 +1212,7 @@
         <v>7632.73</v>
       </c>
       <c r="H5" s="4">
-        <f>G2*(12/100/365)*B5</f>
-        <v>101.91780821917808</v>
+        <v>101.92</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -1255,8 +1255,7 @@
         <v>6820.29</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" ref="H6:H14" si="0">G5*(12/100/365)*B6</f>
-        <v>75.281720547945213</v>
+        <v>75.28</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1299,8 +1298,7 @@
         <v>6002.08</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>69.510900821917815</v>
+        <v>69.510000000000005</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1343,8 +1341,7 @@
         <v>5173.5600000000004</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>59.198597260273971</v>
+        <v>59.2</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1387,8 +1384,7 @@
         <v>4338.57</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>52.727789589041102</v>
+        <v>52.73</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1431,8 +1427,7 @@
         <v>3495.07</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>44.217754520547942</v>
+        <v>44.22</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1475,8 +1470,7 @@
         <v>2641.82</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>34.471923287671238</v>
+        <v>34.47</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -1519,8 +1513,7 @@
         <v>1781.02</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>26.924850410958907</v>
+        <v>26.92</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1563,8 +1556,7 @@
         <v>910.87</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>17.566224657534246</v>
+        <v>17.57</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -1607,8 +1599,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="0"/>
-        <v>9.2833873972602756</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
@@ -1643,7 +1634,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,4 +1950,627 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="28">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>100</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26">
+        <v>100</v>
+      </c>
+      <c r="L2" s="26">
+        <v>100</v>
+      </c>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26">
+        <v>31</v>
+      </c>
+      <c r="C3" s="27">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26">
+        <v>785.8</v>
+      </c>
+      <c r="G3" s="29">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="H3" s="4">
+        <f>G2*(12/100/365)*B3</f>
+        <v>101.91780821917808</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0</v>
+      </c>
+      <c r="K3" s="26">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26">
+        <v>0</v>
+      </c>
+      <c r="P3" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26">
+        <v>28</v>
+      </c>
+      <c r="C4" s="27">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
+        <v>795.67</v>
+      </c>
+      <c r="G4" s="29">
+        <v>8418.5300000000007</v>
+      </c>
+      <c r="H4" s="4">
+        <f>G2*(12/100/365)*B4</f>
+        <v>92.054794520547958</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0</v>
+      </c>
+      <c r="K4" s="26">
+        <v>887.72</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26">
+        <v>0</v>
+      </c>
+      <c r="N4" s="26">
+        <v>0</v>
+      </c>
+      <c r="P4" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26">
+        <v>31</v>
+      </c>
+      <c r="C5" s="27">
+        <v>42095</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26">
+        <v>785.8</v>
+      </c>
+      <c r="G5" s="29">
+        <v>7632.73</v>
+      </c>
+      <c r="H5" s="4">
+        <f>G2*(12/100/365)*B5</f>
+        <v>101.91780821917808</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0</v>
+      </c>
+      <c r="K5" s="26">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26">
+        <v>0</v>
+      </c>
+      <c r="N5" s="26">
+        <v>0</v>
+      </c>
+      <c r="P5" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26">
+        <v>30</v>
+      </c>
+      <c r="C6" s="27">
+        <v>42125</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26">
+        <v>812.44</v>
+      </c>
+      <c r="G6" s="29">
+        <v>6820.29</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6:H14" si="0">G5*(12/100/365)*B6</f>
+        <v>75.281720547945213</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0</v>
+      </c>
+      <c r="P6" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26">
+        <v>31</v>
+      </c>
+      <c r="C7" s="27">
+        <v>42156</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26">
+        <v>818.21</v>
+      </c>
+      <c r="G7" s="29">
+        <v>6002.08</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>69.510900821917815</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26">
+        <v>30</v>
+      </c>
+      <c r="C8" s="27">
+        <v>42186</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26">
+        <v>828.52</v>
+      </c>
+      <c r="G8" s="29">
+        <v>5173.5600000000004</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>59.198597260273971</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26">
+        <v>0</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0</v>
+      </c>
+      <c r="P8" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26">
+        <v>31</v>
+      </c>
+      <c r="C9" s="27">
+        <v>42217</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26">
+        <v>834.99</v>
+      </c>
+      <c r="G9" s="29">
+        <v>4338.57</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>52.727789589041102</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0</v>
+      </c>
+      <c r="K9" s="26">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26">
+        <v>0</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0</v>
+      </c>
+      <c r="P9" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26">
+        <v>31</v>
+      </c>
+      <c r="C10" s="27">
+        <v>42248</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26">
+        <v>843.5</v>
+      </c>
+      <c r="G10" s="29">
+        <v>3495.07</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>44.217754520547942</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0</v>
+      </c>
+      <c r="K10" s="26">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26">
+        <v>0</v>
+      </c>
+      <c r="P10" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26">
+        <v>30</v>
+      </c>
+      <c r="C11" s="27">
+        <v>42278</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26">
+        <v>853.25</v>
+      </c>
+      <c r="G11" s="29">
+        <v>2641.82</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>34.471923287671238</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0</v>
+      </c>
+      <c r="N11" s="26">
+        <v>0</v>
+      </c>
+      <c r="P11" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>10</v>
+      </c>
+      <c r="B12" s="26">
+        <v>31</v>
+      </c>
+      <c r="C12" s="27">
+        <v>42309</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26">
+        <v>860.8</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1781.02</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>26.924850410958907</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0</v>
+      </c>
+      <c r="K12" s="26">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0</v>
+      </c>
+      <c r="M12" s="26">
+        <v>0</v>
+      </c>
+      <c r="N12" s="26">
+        <v>0</v>
+      </c>
+      <c r="P12" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26">
+        <v>30</v>
+      </c>
+      <c r="C13" s="27">
+        <v>42339</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26">
+        <v>870.15</v>
+      </c>
+      <c r="G13" s="26">
+        <v>910.87</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>17.566224657534246</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="26">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26">
+        <v>0</v>
+      </c>
+      <c r="N13" s="26">
+        <v>0</v>
+      </c>
+      <c r="P13" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
+        <v>12</v>
+      </c>
+      <c r="B14" s="26">
+        <v>31</v>
+      </c>
+      <c r="C14" s="27">
+        <v>42370</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26">
+        <v>910.87</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>9.2833873972602756</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0</v>
+      </c>
+      <c r="K14" s="26">
+        <v>920.15</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0</v>
+      </c>
+      <c r="M14" s="26">
+        <v>0</v>
+      </c>
+      <c r="N14" s="26">
+        <v>0</v>
+      </c>
+      <c r="P14" s="26">
+        <v>920.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mifos Automation Excels/Client/3000-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3000-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-CASH-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="740"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -740,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1001,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,12 +1022,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1067,17 +1068,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="27">
@@ -1105,9 +1107,10 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -1143,14 +1146,15 @@
       <c r="M3" s="26">
         <v>0</v>
       </c>
-      <c r="N3" s="26">
-        <v>0</v>
-      </c>
-      <c r="P3" s="26">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="26"/>
+      <c r="O3" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -1186,14 +1190,15 @@
       <c r="M4" s="26">
         <v>0</v>
       </c>
-      <c r="N4" s="26">
-        <v>0</v>
-      </c>
-      <c r="P4" s="26">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="26"/>
+      <c r="O4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>3</v>
       </c>
@@ -1229,14 +1234,15 @@
       <c r="M5" s="26">
         <v>0</v>
       </c>
-      <c r="N5" s="26">
-        <v>0</v>
-      </c>
-      <c r="P5" s="26">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="26"/>
+      <c r="O5" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>4</v>
       </c>
@@ -1272,14 +1278,15 @@
       <c r="M6" s="26">
         <v>0</v>
       </c>
-      <c r="N6" s="26">
-        <v>0</v>
-      </c>
-      <c r="P6" s="26">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="26"/>
+      <c r="O6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>5</v>
       </c>
@@ -1315,14 +1322,15 @@
       <c r="M7" s="26">
         <v>0</v>
       </c>
-      <c r="N7" s="26">
-        <v>0</v>
-      </c>
-      <c r="P7" s="26">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="26"/>
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>6</v>
       </c>
@@ -1358,14 +1366,15 @@
       <c r="M8" s="26">
         <v>0</v>
       </c>
-      <c r="N8" s="26">
-        <v>0</v>
-      </c>
-      <c r="P8" s="26">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="26"/>
+      <c r="O8" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>7</v>
       </c>
@@ -1401,14 +1410,15 @@
       <c r="M9" s="26">
         <v>0</v>
       </c>
-      <c r="N9" s="26">
-        <v>0</v>
-      </c>
-      <c r="P9" s="26">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="26"/>
+      <c r="O9" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>8</v>
       </c>
@@ -1444,14 +1454,15 @@
       <c r="M10" s="26">
         <v>0</v>
       </c>
-      <c r="N10" s="26">
-        <v>0</v>
-      </c>
-      <c r="P10" s="26">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="26"/>
+      <c r="O10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>9</v>
       </c>
@@ -1487,14 +1498,15 @@
       <c r="M11" s="26">
         <v>0</v>
       </c>
-      <c r="N11" s="26">
-        <v>0</v>
-      </c>
-      <c r="P11" s="26">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="26"/>
+      <c r="O11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>10</v>
       </c>
@@ -1530,14 +1542,15 @@
       <c r="M12" s="26">
         <v>0</v>
       </c>
-      <c r="N12" s="26">
-        <v>0</v>
-      </c>
-      <c r="P12" s="26">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="26"/>
+      <c r="O12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>11</v>
       </c>
@@ -1573,14 +1586,15 @@
       <c r="M13" s="26">
         <v>0</v>
       </c>
-      <c r="N13" s="26">
-        <v>0</v>
-      </c>
-      <c r="P13" s="26">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="26"/>
+      <c r="O13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>12</v>
       </c>
@@ -1616,10 +1630,11 @@
       <c r="M14" s="26">
         <v>0</v>
       </c>
-      <c r="N14" s="26">
-        <v>0</v>
-      </c>
-      <c r="P14" s="26">
+      <c r="N14" s="26"/>
+      <c r="O14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="26">
         <v>920.15</v>
       </c>
     </row>
